--- a/medicine/Pharmacie/Karl_Samuel_Leberecht_Hermann/Karl_Samuel_Leberecht_Hermann.xlsx
+++ b/medicine/Pharmacie/Karl_Samuel_Leberecht_Hermann/Karl_Samuel_Leberecht_Hermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Samuel Leberecht Hermann, né le 20 janvier 1765 à Königerode dans le Harz et mort le 1er septembre 1846 à Schönebeck en Saxe-Anhalt, est un pharmacien et chimiste allemand reconnu pour être un des découvreurs de l'élément cadmium en 1818.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chimiste formé par l'école de pharmacie à Halberstadt, diplômé en 1792 et par la pratique de la chimie technique tant au laboratoire qu'en production, ce fils de pasteur fait carrière comme pharmacien en reprenant une pharmacie à Groß Salze près de Hambourg, mais aussi comme industriel et marchand grossiste de produits chimiques, car, en visitant la saline royale de Schönebeck, il comprend que les déchets peuvent être une matière première inépuisable pour fabriquer divers produites chimiques. 
 Après 1794, il fonde la firme "Hermania", qui récupère des sels de magnésium, des sels de potassium et de l'acide chlorhydrique.
@@ -549,7 +563,9 @@
           <t>Honneur posthume</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En l'honneur de Karl Hermann, un complexe scolaire réunissant lycée et écoles en 2014 est nommé à Schönebeck, il s'agit du "Dr.-Carl-Hermann-Gymnasium". Ce grand établissement regroupe l'ancien lycée du Docteur Tollberg et le complexe scolaire "Im Malzmühlenfeld" . 
 </t>
